--- a/autotest1st/jgg/res/page/MerchantPage.xlsx
+++ b/autotest1st/jgg/res/page/MerchantPage.xlsx
@@ -3,20 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6BEF3AFF-0BA0-4A19-BEBE-FBD644B5B74C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38313F7F-8A1B-41CA-8E08-33F5F0BAD787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17310" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>别名</t>
   </si>
@@ -85,6 +84,125 @@
   </si>
   <si>
     <t>//div[@class='ant-modal-confirm-btns']//span[contains(text(), '取 消')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品组字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否停用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>rcDialogTitle0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@placeholder='请选择渠道']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='code']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='name']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@placeholder='请选择商品组']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='appKey']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='appSecret']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='accessToken']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='appUrl']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//textarea[@id='extendInfo']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='note']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//input[@id='disabled']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//label[@for='rpricetypeId']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@aria-labelledby='rcDialogTitle0']//label[@for='mpricetypeId']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价策略label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员价策略label</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,6 +279,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,7 +366,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -493,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,6 +780,160 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
